--- a/logs/charts_results_files/data_ws_12.xlsx
+++ b/logs/charts_results_files/data_ws_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joela\crc-p2\logs\charts_results_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715EDD60-536D-49C1-959A-2939A6629238}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB90028-8439-4963-90CE-9C64F603E036}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6024" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6030" xr2:uid="{7BCBB6FA-6256-42E5-835E-38D250AD9F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Propensities" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>BA</a:t>
+              <a:t>WS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2567,16 +2567,16 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>3.5015655359459354</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>-5.3645694132675601</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>-5.5426659529562903</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>-0.56323737210514302</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>-0.64066629411360498</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>-7.2263222448278004</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>1.4578323746216399</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>77.100295841424298</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>-0.47194809187459802</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>1.4277468756734</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>-5.3504063621980604</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>10.285312986788901</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>-3.31070063881501</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>6.5868714516012297</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>-0.407393783417557</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>-0.43501378199058599</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>5.6519759120325199</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>-0.41870180792078598</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>0.26597562515508499</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>-0.59010115914134598</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>-0.47488980994140201</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>-8.2948274772821193</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>-0.320363406596264</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>-0.527885389044914</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>14.813356468039</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>-7.0042959444349497</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>9.6320593207161505</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>-4.8493459365369898</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>0.77878909381683703</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>-2.4718000959160098</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3211,13 +3211,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>0.80790909090909091</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>191.10599999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>0.89400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>0.89300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>0.85299999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>192.53800000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>0.75700000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>0.95599999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>1.042</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>190.99600000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>189.87200000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>189.76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0.98899999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>189.68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>191.1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>192.16399999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>0.80100000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>0.69799999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3852,14 +3852,14 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>3.0395078411745025</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>3.04032632632632</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>3.0413713713713699</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>3.03902102102102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>3.03956756756756</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>3.03967567567567</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>3.0388868868868801</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>3.0408268268268199</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>3.0408488488488401</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>3.0371991991991898</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>3.0390150150150101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>3.03979179179179</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>3.0404884884884802</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>3.0385125125125101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>3.0386946946946898</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>3.0375475475475402</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>3.0385585585585502</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>3.03745745745745</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>3.0401621621621602</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>3.0414214214214201</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>3.0373393393393302</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>3.0388108108108098</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>3.0388888888888799</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>3.0402062062062001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>3.03805005005005</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>3.0406846846846798</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>3.0408388388388299</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>3.04145745745745</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>3.0414994994994902</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>3.03839639639639</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
